--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>demo</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Making a perfect cappuccino</t>
+  </si>
+  <si>
+    <t>Light in darkness</t>
+  </si>
+  <si>
+    <t>Making a slanting tower stacking blocks</t>
   </si>
 </sst>
 </file>
@@ -361,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,11 +410,23 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -887,5 +905,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>demo</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Making a slanting tower stacking blocks</t>
+  </si>
+  <si>
+    <t>No Force Needed</t>
+  </si>
+  <si>
+    <t>Spectacular Spectrum</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +438,19 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0902F4C-8CAF-4991-BA81-29CF5C6C0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>demo</t>
   </si>
@@ -54,12 +55,36 @@
   </si>
   <si>
     <t>Spectacular Spectrum</t>
+  </si>
+  <si>
+    <t>High voltage</t>
+  </si>
+  <si>
+    <t>Black and white</t>
+  </si>
+  <si>
+    <t>Implosion</t>
+  </si>
+  <si>
+    <t>filmpje toevoegen</t>
+  </si>
+  <si>
+    <t>Radioactive decay - a simulation</t>
+  </si>
+  <si>
+    <t>Falling spring</t>
+  </si>
+  <si>
+    <t>Gauss' rifle</t>
+  </si>
+  <si>
+    <t>DNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,19 +395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -404,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -412,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -423,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -434,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -445,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -453,469 +478,511 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0902F4C-8CAF-4991-BA81-29CF5C6C0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0035588-1A72-401D-8EFF-DAA4D7E83AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>demo</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>DNA</t>
+  </si>
+  <si>
+    <t>Rollin' in the deep</t>
+  </si>
+  <si>
+    <t>Mysterious fountain</t>
+  </si>
+  <si>
+    <t>Spinning circles in a wine glass</t>
+  </si>
+  <si>
+    <t>Optics with LEDs</t>
+  </si>
+  <si>
+    <t>Cloud formation</t>
+  </si>
+  <si>
+    <t>Fluorescent olive oil</t>
+  </si>
+  <si>
+    <t>Induction tubes</t>
+  </si>
+  <si>
+    <t>engels</t>
   </si>
 </sst>
 </file>
@@ -398,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,77 +862,119 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -919,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>demo</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Introducing a Particle Model to Explain the Coloring of Eggs</t>
-  </si>
-  <si>
     <t>voltooid</t>
   </si>
   <si>
@@ -54,6 +51,33 @@
   </si>
   <si>
     <t>Spectacular Spectrum</t>
+  </si>
+  <si>
+    <t>Magic with pendulums</t>
+  </si>
+  <si>
+    <t>Magic Memory Balls</t>
+  </si>
+  <si>
+    <t>TEKSTEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing a particle model to explain the coloring of eggs </t>
+  </si>
+  <si>
+    <t>Can it be air?</t>
+  </si>
+  <si>
+    <t>The returning can</t>
+  </si>
+  <si>
+    <t>figuur NL - EN</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>solution nummering??</t>
   </si>
 </sst>
 </file>
@@ -371,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +406,7 @@
     <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,103 +416,133 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -573,82 +627,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>demo</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Making a slanting tower stacking blocks</t>
   </si>
   <si>
-    <t>No Force Needed</t>
-  </si>
-  <si>
     <t>Spectacular Spectrum</t>
   </si>
   <si>
@@ -78,6 +75,129 @@
   </si>
   <si>
     <t>solution nummering??</t>
+  </si>
+  <si>
+    <t>Crookes' radiometer</t>
+  </si>
+  <si>
+    <t>Trapped candles</t>
+  </si>
+  <si>
+    <t>Cylinder puzzle</t>
+  </si>
+  <si>
+    <t>Magic, trick or physics?</t>
+  </si>
+  <si>
+    <t>Roll and stop</t>
+  </si>
+  <si>
+    <t>Mysterious fountain</t>
+  </si>
+  <si>
+    <t>Does van de Graff not like a shower?</t>
+  </si>
+  <si>
+    <t>Why does the water rise?</t>
+  </si>
+  <si>
+    <t>Investigating a devastating flame</t>
+  </si>
+  <si>
+    <t>A battle between two bottles</t>
+  </si>
+  <si>
+    <t>Flamecooler</t>
+  </si>
+  <si>
+    <t>Speed of light in a liquid</t>
+  </si>
+  <si>
+    <t>Powerful balloon</t>
+  </si>
+  <si>
+    <t>Determination of g</t>
+  </si>
+  <si>
+    <t>Rollin' in the deep</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Making Einstein young again</t>
+  </si>
+  <si>
+    <t>Surprising infra-red investigations</t>
+  </si>
+  <si>
+    <t>LEDs and photons</t>
+  </si>
+  <si>
+    <t>Writing with a laser using phosphorescene</t>
+  </si>
+  <si>
+    <t>Shadow of a flame 1</t>
+  </si>
+  <si>
+    <t>Shadow of a flame 2</t>
+  </si>
+  <si>
+    <t>Standing wave with an electric toothbrush</t>
+  </si>
+  <si>
+    <t>Physics of the panflute</t>
+  </si>
+  <si>
+    <t>Ranking the stars</t>
+  </si>
+  <si>
+    <t>Singing rod</t>
+  </si>
+  <si>
+    <t>Bouncing ball in a tube</t>
+  </si>
+  <si>
+    <t>Fluorescent olive oil</t>
+  </si>
+  <si>
+    <t>Hot spots in the microwave</t>
+  </si>
+  <si>
+    <t>Strange shadows</t>
+  </si>
+  <si>
+    <t>Cold radiation</t>
+  </si>
+  <si>
+    <t>Captured laser beam</t>
+  </si>
+  <si>
+    <t>Merry-go-around of floating candles</t>
+  </si>
+  <si>
+    <t>Blowing out a light bulb</t>
+  </si>
+  <si>
+    <t>Measuring charge</t>
+  </si>
+  <si>
+    <t>Alternating voltage over a lamp</t>
+  </si>
+  <si>
+    <t>Lorentz force on charged particles</t>
+  </si>
+  <si>
+    <t>Slow bulbs</t>
+  </si>
+  <si>
+    <t>Induction tubes</t>
+  </si>
+  <si>
+    <t>High voltage</t>
+  </si>
+  <si>
+    <t>Who needs force?</t>
   </si>
 </sst>
 </file>
@@ -397,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -442,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -483,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -494,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -505,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -526,6 +646,9 @@
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -547,82 +670,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -631,6 +775,9 @@
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -641,6 +788,9 @@
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -671,25 +821,31 @@
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -716,244 +872,328 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D83FD-A490-4053-8D69-47451D33B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-28800" yWindow="1590" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>demo</t>
   </si>
@@ -198,12 +199,78 @@
   </si>
   <si>
     <t>Who needs force?</t>
+  </si>
+  <si>
+    <t>Falling faster than g</t>
+  </si>
+  <si>
+    <t>Rotational inertia</t>
+  </si>
+  <si>
+    <t>Tug-of-War</t>
+  </si>
+  <si>
+    <t>Stick-slip motion</t>
+  </si>
+  <si>
+    <t>Self-propelling car</t>
+  </si>
+  <si>
+    <t>Does the magnet challenge gravity?</t>
+  </si>
+  <si>
+    <t>Who dares?</t>
+  </si>
+  <si>
+    <t>Dropping balls and bottles</t>
+  </si>
+  <si>
+    <t>Feeling physics with your own body!</t>
+  </si>
+  <si>
+    <t>Upward and downward force</t>
+  </si>
+  <si>
+    <t>Twice as much isn’t twice as big</t>
+  </si>
+  <si>
+    <t>Floating pearls</t>
+  </si>
+  <si>
+    <t>Tension in a pendulum</t>
+  </si>
+  <si>
+    <t>Rotating balloon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colliding with Newton's third law </t>
+  </si>
+  <si>
+    <t>Up and down the hill</t>
+  </si>
+  <si>
+    <t>Rotating cubes</t>
+  </si>
+  <si>
+    <t>Playing with density</t>
+  </si>
+  <si>
+    <t>Ocean currents</t>
+  </si>
+  <si>
+    <t>Rich boiling phenomena</t>
+  </si>
+  <si>
+    <t>Boiling by cooling</t>
+  </si>
+  <si>
+    <t>Boyle’s law</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,48 +716,75 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -698,7 +792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -706,7 +800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -714,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -722,7 +816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -730,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -738,17 +832,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -756,17 +856,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -796,6 +902,9 @@
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -806,11 +915,17 @@
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -866,11 +981,17 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -949,6 +1070,9 @@
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -982,17 +1106,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1000,27 +1127,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1028,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1036,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1044,7 +1180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1052,7 +1188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1060,17 +1196,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1078,9 +1214,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D83FD-A490-4053-8D69-47451D33B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF2EC3C-2FDD-4BA1-AE9F-390CEABB871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1590" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>demo</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +727,9 @@
       <c r="B13" t="s">
         <v>58</v>
       </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -735,6 +738,9 @@
       <c r="B14" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -742,6 +748,9 @@
       </c>
       <c r="B15" t="s">
         <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF2EC3C-2FDD-4BA1-AE9F-390CEABB871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493737E-B21A-42C2-BD78-E490842137AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>demo</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +760,9 @@
       <c r="B16" t="s">
         <v>61</v>
       </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -767,6 +770,9 @@
       </c>
       <c r="B17" t="s">
         <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493737E-B21A-42C2-BD78-E490842137AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808AD19-CFD9-4F85-B25F-4543680C35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>demo</t>
   </si>
@@ -280,12 +280,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,8 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +621,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -639,7 +646,7 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -782,6 +789,9 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -789,6 +799,9 @@
       </c>
       <c r="B19" t="s">
         <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>demo</t>
   </si>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +846,9 @@
       <c r="B43" t="s">
         <v>26</v>
       </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -982,17 +985,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1000,35 +1003,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1060,17 +1066,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808AD19-CFD9-4F85-B25F-4543680C35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>demo</t>
   </si>
@@ -198,12 +199,78 @@
   </si>
   <si>
     <t>Who needs force?</t>
+  </si>
+  <si>
+    <t>Falling faster than g</t>
+  </si>
+  <si>
+    <t>Rotational inertia</t>
+  </si>
+  <si>
+    <t>Tug-of-War</t>
+  </si>
+  <si>
+    <t>Stick-slip motion</t>
+  </si>
+  <si>
+    <t>Self-propelling car</t>
+  </si>
+  <si>
+    <t>Does the magnet challenge gravity?</t>
+  </si>
+  <si>
+    <t>Who dares?</t>
+  </si>
+  <si>
+    <t>Dropping balls and bottles</t>
+  </si>
+  <si>
+    <t>Feeling physics with your own body!</t>
+  </si>
+  <si>
+    <t>Upward and downward force</t>
+  </si>
+  <si>
+    <t>Twice as much isn’t twice as big</t>
+  </si>
+  <si>
+    <t>Floating pearls</t>
+  </si>
+  <si>
+    <t>Tension in a pendulum</t>
+  </si>
+  <si>
+    <t>Rotating balloon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colliding with Newton's third law </t>
+  </si>
+  <si>
+    <t>Up and down the hill</t>
+  </si>
+  <si>
+    <t>Rotating cubes</t>
+  </si>
+  <si>
+    <t>Playing with density</t>
+  </si>
+  <si>
+    <t>Ocean currents</t>
+  </si>
+  <si>
+    <t>Rich boiling phenomena</t>
+  </si>
+  <si>
+    <t>Boiling by cooling</t>
+  </si>
+  <si>
+    <t>Boyle’s law</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,12 +280,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,11 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,11 +588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +621,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -572,7 +646,7 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -649,48 +723,96 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -698,7 +820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -706,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -714,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -722,7 +844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -730,7 +852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -738,17 +860,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -756,17 +884,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -796,6 +930,9 @@
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -806,11 +943,17 @@
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -846,9 +989,6 @@
       <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -869,11 +1009,17 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -952,6 +1098,9 @@
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -994,6 +1143,9 @@
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -1007,6 +1159,9 @@
       <c r="A68">
         <v>66</v>
       </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1017,11 +1172,17 @@
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -1030,9 +1191,6 @@
       <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -1087,6 +1245,12 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808AD19-CFD9-4F85-B25F-4543680C35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA71B40-DD3A-4391-AFB9-8B00C94511A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>demo</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Boyle’s law</t>
+  </si>
+  <si>
+    <t>film met blik en water</t>
   </si>
 </sst>
 </file>
@@ -592,15 +595,15 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -625,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -639,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -650,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -661,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -672,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -683,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -694,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -705,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -716,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -727,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -738,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -749,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -760,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -771,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -782,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -793,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -804,15 +807,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -820,7 +826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -828,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -836,7 +842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -844,7 +850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -852,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -860,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -868,7 +874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -876,7 +882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -884,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -895,17 +901,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -913,12 +919,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -926,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -934,12 +940,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -947,7 +953,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -955,12 +961,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -968,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -982,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -990,22 +996,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1061,12 +1067,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1074,27 +1080,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1134,12 +1140,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1163,12 +1169,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1224,17 +1230,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1277,12 +1283,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1322,27 +1328,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1366,27 +1372,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA71B40-DD3A-4391-AFB9-8B00C94511A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A0DBD-00E5-49E8-83CA-355B6CF16269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>demo</t>
   </si>
@@ -283,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,9 +315,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,16 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -628,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -642,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -653,51 +660,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -708,106 +715,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -818,7 +825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -826,7 +833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -834,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -842,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -850,7 +857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -858,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -866,15 +873,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -882,7 +892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -890,7 +900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -901,17 +911,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -919,12 +929,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -932,7 +942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -940,12 +950,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -953,7 +963,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -961,12 +971,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -974,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -988,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -996,22 +1006,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1027,7 +1037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1067,12 +1077,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1080,27 +1090,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1140,12 +1150,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1169,12 +1179,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1230,17 +1240,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1248,7 +1258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1283,12 +1293,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1312,7 +1322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1328,27 +1338,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1372,27 +1382,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45A0DBD-00E5-49E8-83CA-355B6CF16269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63BB12-569A-435C-9FDD-E55C7A6FBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="2436" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>demo</t>
   </si>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,6 +891,9 @@
       <c r="B28" t="s">
         <v>67</v>
       </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63BB12-569A-435C-9FDD-E55C7A6FBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F886B13-31D1-4BDA-BE35-C7D6F083ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="2436" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>demo</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>film met blik en water</t>
+  </si>
+  <si>
+    <t>foto en video</t>
+  </si>
+  <si>
+    <t>Picture</t>
   </si>
 </sst>
 </file>
@@ -315,10 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,16 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -635,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -649,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -660,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -671,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -682,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -693,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -704,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -715,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -726,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -737,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -748,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -759,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -770,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -781,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -792,7 +799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -803,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -814,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -825,31 +832,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -857,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -865,7 +887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -873,7 +895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -884,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -895,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -903,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -914,17 +936,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -932,12 +954,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -945,7 +967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -953,12 +975,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -966,7 +988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -974,12 +996,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -987,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1009,22 +1031,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1032,7 +1054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1064,7 +1086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1080,12 +1102,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1093,27 +1115,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1121,7 +1143,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1129,7 +1151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1137,7 +1159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1145,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1153,12 +1175,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1182,12 +1204,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1195,7 +1217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1211,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1235,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1243,17 +1265,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1261,7 +1283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1296,12 +1318,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1325,7 +1347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1333,7 +1355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1341,27 +1363,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1369,7 +1391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1377,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1385,27 +1407,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F886B13-31D1-4BDA-BE35-C7D6F083ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C71316-7B66-497D-9F3E-96A0FD3C518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>demo</t>
   </si>
@@ -274,6 +274,39 @@
   </si>
   <si>
     <t>Picture</t>
+  </si>
+  <si>
+    <t>checked door pter</t>
+  </si>
+  <si>
+    <t>Black and white</t>
+  </si>
+  <si>
+    <t>Implosion</t>
+  </si>
+  <si>
+    <t>filmpje toevoegen</t>
+  </si>
+  <si>
+    <t>Radioactive decay - A simulation</t>
+  </si>
+  <si>
+    <t>Falling spring</t>
+  </si>
+  <si>
+    <t>Gauss’ rifle</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Spinning circles in a wine glass</t>
+  </si>
+  <si>
+    <t>Optics with LEDs</t>
+  </si>
+  <si>
+    <t>Cloud formation</t>
   </si>
 </sst>
 </file>
@@ -321,11 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +885,7 @@
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
@@ -924,6 +956,9 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -945,6 +980,9 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -979,6 +1017,9 @@
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1232,6 +1273,9 @@
       <c r="B72" t="s">
         <v>19</v>
       </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -1240,6 +1284,9 @@
       <c r="B73" t="s">
         <v>20</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -1294,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1302,7 +1349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1310,7 +1357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1318,12 +1365,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1331,7 +1378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1339,7 +1386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1347,7 +1394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1355,7 +1402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1363,27 +1410,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1391,45 +1462,84 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C71316-7B66-497D-9F3E-96A0FD3C518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -307,12 +306,66 @@
   </si>
   <si>
     <t>Cloud formation</t>
+  </si>
+  <si>
+    <t>Extinguishing without water</t>
+  </si>
+  <si>
+    <t>Air is not nothing: weighing air</t>
+  </si>
+  <si>
+    <t>Cool cans</t>
+  </si>
+  <si>
+    <t>Parabolic orbit in free fall?</t>
+  </si>
+  <si>
+    <t>Upward dripping</t>
+  </si>
+  <si>
+    <t>A light bulb as hot as the sun?</t>
+  </si>
+  <si>
+    <t>Boiling without heating in a vacuum</t>
+  </si>
+  <si>
+    <t>Two springs, series or parallel?</t>
+  </si>
+  <si>
+    <t>Falling candle</t>
+  </si>
+  <si>
+    <t>Communicating vessels</t>
+  </si>
+  <si>
+    <t>Stick on wine glass</t>
+  </si>
+  <si>
+    <t>Pulling a spool</t>
+  </si>
+  <si>
+    <t>Curve ball</t>
+  </si>
+  <si>
+    <t>Condensation heat in infrared</t>
+  </si>
+  <si>
+    <t>Colliding balls</t>
+  </si>
+  <si>
+    <t>Cooling metal spheres</t>
+  </si>
+  <si>
+    <t>A balloon that can do everything</t>
+  </si>
+  <si>
+    <t>Transit of a planet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,19 +690,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -674,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -688,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -699,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -710,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -721,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -732,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -743,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -754,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -765,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -776,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -787,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -798,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -809,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -820,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -831,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -842,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -853,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -864,7 +917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -878,7 +931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -892,7 +945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -903,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -911,7 +964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -919,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -927,7 +980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -938,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -949,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -960,7 +1013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -971,20 +1024,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
       <c r="C32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -992,12 +1051,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1005,7 +1067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1013,15 +1075,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
       <c r="C37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1029,7 +1094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1037,12 +1102,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1050,7 +1118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1064,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1072,22 +1140,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1095,7 +1172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1103,7 +1180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1111,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1119,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1127,7 +1204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1135,7 +1212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1143,12 +1220,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1156,27 +1236,39 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1184,7 +1276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1192,7 +1284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1200,7 +1292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1208,7 +1300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1216,12 +1308,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1229,7 +1324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1237,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1245,12 +1340,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1258,7 +1356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1266,7 +1364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1277,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1288,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1296,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1304,7 +1402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1312,17 +1410,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1330,7 +1434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1341,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1349,7 +1453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1357,7 +1461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1365,12 +1469,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1378,7 +1485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1386,7 +1493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1394,7 +1501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1402,7 +1509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1410,7 +1517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1421,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1432,7 +1539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1443,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1454,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1462,7 +1569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1473,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1484,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1495,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1506,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1517,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1531,7 +1638,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6645A1-4D6F-44A0-9D64-ABE252BDFE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -74,9 +75,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>solution nummering??</t>
-  </si>
-  <si>
     <t>Crookes' radiometer</t>
   </si>
   <si>
@@ -360,12 +358,15 @@
   </si>
   <si>
     <t>Transit of a planet</t>
+  </si>
+  <si>
+    <t>nv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -690,11 +691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +735,8 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -823,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -834,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -845,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -856,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -867,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -878,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -889,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -900,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -911,10 +909,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,13 +920,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,13 +934,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -961,7 +959,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,7 +978,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -996,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1007,10 +1011,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1029,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,7 +1060,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1068,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,10 +1084,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1103,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1152,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1171,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1179,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,269 +1187,290 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -1450,7 +1481,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1489,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1497,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,7 +1505,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,7 +1513,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,7 +1521,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,7 +1529,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1537,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1553,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -1533,7 +1564,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -1544,7 +1575,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -1555,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -1566,7 +1597,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,7 +1608,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -1585,7 +1619,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -1596,7 +1630,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -1607,7 +1641,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -1618,7 +1652,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -1629,13 +1663,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>85</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1677,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6645A1-4D6F-44A0-9D64-ABE252BDFE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3919F53-A35E-4CFA-BD7B-7EFE2078B312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,8 +961,8 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
-        <v>111</v>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3919F53-A35E-4CFA-BD7B-7EFE2078B312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF5D32-CFFE-4785-9DD3-AB76C8F61FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,6 +972,9 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1472,7 +1475,7 @@
       <c r="B80" t="s">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF5D32-CFFE-4785-9DD3-AB76C8F61FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED3359-E58F-42A5-95F6-6476DA30A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,8 +983,8 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
-        <v>111</v>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
       <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1016,8 +1016,8 @@
       <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED3359-E58F-42A5-95F6-6476DA30A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B063A-221D-4657-8A16-CB8B1202C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
   <si>
     <t>demo</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>The returning can</t>
-  </si>
-  <si>
-    <t>figuur NL - EN</t>
   </si>
   <si>
     <t>To do</t>
@@ -694,16 +691,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -728,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -739,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -750,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -761,18 +758,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -783,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -794,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -805,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -816,871 +813,868 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B063A-221D-4657-8A16-CB8B1202C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380B5BD-F0F7-40D8-B7D8-594EEDBB3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Determination of g</t>
   </si>
   <si>
-    <t>Rollin' in the deep</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>nv</t>
+  </si>
+  <si>
+    <t>On a roll</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -884,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -906,10 +906,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,13 +917,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,13 +931,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -956,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -1000,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1022,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1033,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,10 +1041,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,10 +1084,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1103,10 +1103,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,7 +1160,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1176,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,7 +1184,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,10 +1192,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,10 +1203,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,10 +1238,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,7 +1273,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,10 +1338,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1373,7 +1373,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -1478,7 +1478,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -1561,7 +1561,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -1572,7 +1572,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -1605,7 +1605,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -1638,7 +1638,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -1649,7 +1649,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -1660,13 +1660,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>83</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380B5BD-F0F7-40D8-B7D8-594EEDBB3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850CD0-8BC7-428B-81A4-77C04F28A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>On a roll</t>
+  </si>
+  <si>
+    <t>nieuwe video</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1028,7 @@
       <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1035,6 +1039,10 @@
       <c r="B31" t="s">
         <v>91</v>
       </c>
+      <c r="C31" s="3"/>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -1086,8 +1094,8 @@
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
-        <v>80</v>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,6 +1309,9 @@
       </c>
       <c r="B61" t="s">
         <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850CD0-8BC7-428B-81A4-77C04F28A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22194BD8-6782-4D0E-86B3-C75B39C31A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Falling candle</t>
   </si>
   <si>
-    <t>Communicating vessels</t>
-  </si>
-  <si>
     <t>Stick on wine glass</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>nieuwe video</t>
+  </si>
+  <si>
+    <t>Miscommunicating vessels</t>
   </si>
 </sst>
 </file>
@@ -408,11 +408,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,16 +694,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -729,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -740,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -751,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -762,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -773,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -784,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -795,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -806,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -817,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -828,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -839,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -850,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -861,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -872,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -883,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -894,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -905,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -916,7 +915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -930,7 +929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -944,7 +943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -955,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -966,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -977,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -988,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -999,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1032,30 +1031,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3"/>
       <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1114,18 +1112,21 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1160,10 +1161,10 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1187,15 +1188,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1203,10 +1207,10 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1214,10 +1218,10 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1249,10 +1253,10 @@
         <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1268,34 +1272,34 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1330,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1341,21 +1345,21 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1379,15 +1383,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1449,23 +1453,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1508,15 +1512,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1600,18 +1604,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22194BD8-6782-4D0E-86B3-C75B39C31A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C7A67-ADB4-48B2-91B5-F02742BC5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C7A67-ADB4-48B2-91B5-F02742BC5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50E045-E409-46CE-9AB3-C076F9EDE327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>demo</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>foto en video</t>
-  </si>
-  <si>
-    <t>Picture</t>
   </si>
   <si>
     <t>checked door pter</t>
@@ -408,10 +405,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,11 +934,8 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,10 +1031,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1060,13 +1055,19 @@
       <c r="B33" t="s">
         <v>47</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1112,7 +1113,7 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,10 +1121,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,10 +1159,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1170,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1178,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1208,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,7 +1219,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,10 +1251,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1270,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,7 +1286,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -1296,7 +1297,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,10 +1354,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,7 +1389,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,7 +1467,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,7 +1518,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1566,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -1576,7 +1577,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -1587,7 +1588,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -1609,7 +1610,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -1620,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -1642,7 +1643,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -1653,7 +1654,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -1664,7 +1665,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -1675,13 +1676,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>82</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1690,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50E045-E409-46CE-9AB3-C076F9EDE327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E88E0-A75F-4A7B-8FD2-22F806D74313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23496" yWindow="2436" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>demo</t>
   </si>
@@ -405,11 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +692,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1065,7 @@
       <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1076,6 +1075,9 @@
       </c>
       <c r="B35" t="s">
         <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E88E0-A75F-4A7B-8FD2-22F806D74313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB52965-D60E-4D48-BEA4-9216E8EB4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23496" yWindow="2436" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Miscommunicating vessels</t>
+  </si>
+  <si>
+    <t>betere foto</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1090,9 @@
       <c r="B36" t="s">
         <v>72</v>
       </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB52965-D60E-4D48-BEA4-9216E8EB4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB75EE-FBFA-4B54-B3E6-97E4764AF511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23496" yWindow="2436" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>demo</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Miscommunicating vessels</t>
-  </si>
-  <si>
-    <t>betere foto</t>
   </si>
 </sst>
 </file>
@@ -408,10 +405,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,15 +693,15 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -728,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -739,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -750,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -761,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -772,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -783,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -794,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -805,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -816,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -827,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -838,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -849,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -860,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -871,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -882,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -893,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -904,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -915,7 +913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -929,7 +927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -940,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -951,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -962,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -973,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -984,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -995,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1083,18 +1081,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1105,15 +1103,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB75EE-FBFA-4B54-B3E6-97E4764AF511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E74EE0E-4E5D-4CA1-9564-AA7C821BBC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>demo</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Miscommunicating vessels</t>
+  </si>
+  <si>
+    <t>beter filmpje &amp; foto</t>
   </si>
 </sst>
 </file>
@@ -405,11 +408,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +695,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,8 +1112,11 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E74EE0E-4E5D-4CA1-9564-AA7C821BBC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>demo</t>
   </si>
@@ -262,9 +261,6 @@
   </si>
   <si>
     <t>foto en video</t>
-  </si>
-  <si>
-    <t>checked door pter</t>
   </si>
   <si>
     <t>Black and white</t>
@@ -366,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,19 +687,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -728,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -739,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -750,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -761,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -772,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -783,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -794,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -805,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -816,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -827,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -838,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -849,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -860,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -871,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -882,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -893,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -904,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -915,7 +911,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -929,7 +925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -940,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -951,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -962,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -973,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -984,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -995,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1028,29 +1024,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1061,18 +1057,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1094,18 +1090,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1116,32 +1112,32 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1149,7 +1145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1168,34 +1164,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1203,7 +1199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1222,10 +1218,10 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1233,10 +1229,10 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1252,7 +1248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1260,18 +1256,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1279,42 +1275,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1333,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1341,7 +1337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1349,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1360,21 +1356,21 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1382,7 +1378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1398,15 +1394,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1433,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1468,23 +1464,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1492,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1527,15 +1523,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1543,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1575,40 +1571,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1619,29 +1615,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1652,59 +1648,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freek\Documents\GitHub\Showing-Physics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782F0C7-D8F3-4FEB-AEB3-9A7AE5760A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>demo</t>
   </si>
@@ -302,9 +314,6 @@
     <t>Cool cans</t>
   </si>
   <si>
-    <t>Parabolic orbit in free fall?</t>
-  </si>
-  <si>
     <t>Upward dripping</t>
   </si>
   <si>
@@ -357,12 +366,30 @@
   </si>
   <si>
     <t>beter filmpje &amp; foto</t>
+  </si>
+  <si>
+    <t>te gaan</t>
+  </si>
+  <si>
+    <t>maken</t>
+  </si>
+  <si>
+    <t>Force and motion with a bowling ball</t>
+  </si>
+  <si>
+    <t>betere foto</t>
+  </si>
+  <si>
+    <t>zou fotos kunnen gebruiken</t>
+  </si>
+  <si>
+    <t>nieuwe foto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,19 +714,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +739,19 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -723,8 +761,16 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNTIF(C3:C103,"voltooid")</f>
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <f>F1-F3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -735,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -746,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -757,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -768,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -779,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -790,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -801,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -812,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -823,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -834,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -845,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -856,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -867,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -878,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -889,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -900,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -911,7 +957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -925,7 +971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -936,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -947,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -958,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -969,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -980,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -991,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1002,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1013,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1024,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1032,10 +1078,10 @@
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1046,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1057,18 +1103,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1079,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1090,32 +1136,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1126,26 +1172,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1156,50 +1205,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1210,7 +1280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1218,10 +1288,10 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1229,10 +1299,10 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1240,7 +1310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1248,7 +1318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1256,18 +1326,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1275,42 +1345,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1318,7 +1388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1329,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1337,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1345,10 +1415,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1356,21 +1426,21 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1378,7 +1448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1386,7 +1456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1394,15 +1464,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1410,7 +1480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1418,7 +1488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1429,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1440,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1448,7 +1518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1456,7 +1526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1464,23 +1534,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1488,7 +1558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1499,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1507,7 +1577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1515,7 +1585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1523,15 +1593,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1539,7 +1609,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1547,7 +1617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1555,7 +1625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1563,7 +1633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1571,7 +1641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1582,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1593,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1604,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1615,18 +1685,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1637,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1648,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1659,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1670,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1681,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1695,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782F0C7-D8F3-4FEB-AEB3-9A7AE5760A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D34687-6266-4E4C-B11B-AF8BD3B2BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Measuring charge</t>
   </si>
   <si>
-    <t>Alternating voltage over a lamp</t>
-  </si>
-  <si>
     <t>Lorentz force on charged particles</t>
   </si>
   <si>
@@ -384,6 +381,24 @@
   </si>
   <si>
     <t>nieuwe foto</t>
+  </si>
+  <si>
+    <t>Alternating voltage across a lamp</t>
+  </si>
+  <si>
+    <t>metingen doen met oscilloscoop</t>
+  </si>
+  <si>
+    <t>grote check gedaan</t>
+  </si>
+  <si>
+    <t>betere foto cardboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betere fotos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto   </t>
   </si>
 </sst>
 </file>
@@ -717,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -763,11 +778,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -874,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -885,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -896,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -907,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -918,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -929,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -940,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -951,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,7 +1046,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -1042,7 +1057,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1064,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1075,10 +1090,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1108,7 +1123,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1130,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1141,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1152,13 +1167,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1181,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1177,7 +1192,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1221,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1232,13 +1247,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
         <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,13 +1261,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1260,13 +1275,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1274,70 +1289,88 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>115</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1345,50 +1378,50 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1399,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1407,7 +1440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1415,10 +1448,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1434,10 +1467,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,7 +1478,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1494,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,7 +1502,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1485,7 +1518,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,7 +1572,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,7 +1580,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,7 +1596,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -1598,7 +1631,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1614,7 +1647,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1622,7 +1655,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1630,7 +1663,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1646,7 +1679,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -1657,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -1668,7 +1701,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -1690,7 +1723,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -1701,7 +1734,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -1712,7 +1745,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -1723,7 +1756,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -1734,7 +1767,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -1745,7 +1778,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -1756,13 +1789,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>80</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1803,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D34687-6266-4E4C-B11B-AF8BD3B2BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00041A25-FD9C-4C70-94CA-0F227E0B27FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,11 +778,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1657,6 +1657,9 @@
       <c r="B87" t="s">
         <v>50</v>
       </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -1665,6 +1668,9 @@
       <c r="B88" t="s">
         <v>51</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -1672,6 +1678,9 @@
       </c>
       <c r="B89" t="s">
         <v>41</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00041A25-FD9C-4C70-94CA-0F227E0B27FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF24D4D-BDD9-4067-B665-1C06D54994AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>demo</t>
   </si>
@@ -399,19 +399,34 @@
   </si>
   <si>
     <t xml:space="preserve">foto   </t>
+  </si>
+  <si>
+    <t>beter filmpje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filmpje </t>
+  </si>
+  <si>
+    <t>fotos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222832"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -446,10 +461,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +749,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,11 +794,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1602,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1618,39 +1634,60 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1661,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1672,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1683,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1694,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1705,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1716,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1727,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1738,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1749,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF24D4D-BDD9-4067-B665-1C06D54994AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF19B4-BB28-4922-8D9E-C1616DDED28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>demo</t>
   </si>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,11 +794,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1536,6 +1536,9 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -1574,6 +1577,9 @@
       <c r="B75" t="s">
         <v>28</v>
       </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -1606,6 +1612,9 @@
       <c r="B79" t="s">
         <v>36</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -1625,6 +1634,9 @@
       <c r="B81" t="s">
         <v>37</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -1633,6 +1645,9 @@
       <c r="B82" t="s">
         <v>38</v>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -1641,7 +1656,7 @@
       <c r="B83" t="s">
         <v>39</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF19B4-BB28-4922-8D9E-C1616DDED28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0E068-50AE-4051-AF21-05DCE79235C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
   <si>
     <t>demo</t>
   </si>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,11 +794,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,6 +1370,9 @@
       </c>
       <c r="B53" t="s">
         <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>119</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0E068-50AE-4051-AF21-05DCE79235C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110060E-4F6F-49CD-937F-4F8343898349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>demo</t>
   </si>
@@ -749,15 +749,15 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -794,14 +794,14 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -878,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -911,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -977,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -988,7 +988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1389,15 +1389,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110060E-4F6F-49CD-937F-4F8343898349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B683BBC-624F-42D6-92DD-DA440DAFF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
   <si>
     <t>demo</t>
   </si>
@@ -749,7 +749,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,11 +794,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,6 +1407,9 @@
       <c r="B56" t="s">
         <v>93</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -1414,6 +1417,9 @@
       </c>
       <c r="B57" t="s">
         <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B683BBC-624F-42D6-92DD-DA440DAFF0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D336A0F-94A0-42FB-998C-870C1C57B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
   <si>
     <t>demo</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Boyle’s law</t>
-  </si>
-  <si>
-    <t>film met blik en water</t>
   </si>
   <si>
     <t>foto en video</t>
@@ -748,16 +745,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,15 +771,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -794,14 +791,14 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -812,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -823,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -834,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -856,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -867,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -878,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -889,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -900,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -911,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -922,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -933,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -944,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -955,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -966,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -977,18 +974,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -999,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1101,29 +1098,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1134,18 +1131,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1167,18 +1164,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1189,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1203,18 +1200,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1247,46 +1244,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
         <v>111</v>
       </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1297,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1322,24 +1319,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
       <c r="G50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1361,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1375,21 +1372,21 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1400,48 +1397,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1476,10 +1473,10 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1487,21 +1484,21 @@
         <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1525,15 +1522,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1563,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1574,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1601,23 +1598,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1672,21 +1669,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1697,10 +1694,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1711,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1736,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1747,40 +1744,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1791,29 +1788,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1824,59 +1821,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D336A0F-94A0-42FB-998C-870C1C57B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F246658-2CB1-4A6D-B604-DD21E6E4B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
   <si>
     <t>demo</t>
   </si>
@@ -353,9 +353,6 @@
     <t>On a roll</t>
   </si>
   <si>
-    <t>nieuwe video</t>
-  </si>
-  <si>
     <t>Miscommunicating vessels</t>
   </si>
   <si>
@@ -365,15 +362,9 @@
     <t>te gaan</t>
   </si>
   <si>
-    <t>maken</t>
-  </si>
-  <si>
     <t>Force and motion with a bowling ball</t>
   </si>
   <si>
-    <t>betere foto</t>
-  </si>
-  <si>
     <t>zou fotos kunnen gebruiken</t>
   </si>
   <si>
@@ -405,6 +396,12 @@
   </si>
   <si>
     <t>fotos</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>foto uncommenten</t>
   </si>
 </sst>
 </file>
@@ -745,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,11 +788,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,8 +1102,8 @@
       <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="D31" t="s">
-        <v>105</v>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1260,13 +1257,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1280,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1294,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1324,16 +1321,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1358,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1383,7 +1380,7 @@
         <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1680,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1694,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F246658-2CB1-4A6D-B604-DD21E6E4B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1855EF-E48E-4617-B76A-B87C3832AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t xml:space="preserve">betere fotos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">foto   </t>
   </si>
   <si>
     <t>beter filmpje</t>
@@ -743,7 +740,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,11 +785,11 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1259,11 +1256,14 @@
       <c r="B45" t="s">
         <v>108</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
         <v>120</v>
-      </c>
-      <c r="E45" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1379,8 +1379,8 @@
       <c r="B54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
-        <v>116</v>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1855EF-E48E-4617-B76A-B87C3832AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0516E6-E932-4B86-B2C5-29C7D448FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Implosion</t>
   </si>
   <si>
-    <t>filmpje toevoegen</t>
-  </si>
-  <si>
     <t>Radioactive decay - A simulation</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>Transit of a planet</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>On a roll</t>
   </si>
   <si>
@@ -399,6 +393,12 @@
   </si>
   <si>
     <t>foto uncommenten</t>
+  </si>
+  <si>
+    <t>video?</t>
+  </si>
+  <si>
+    <t>video ballon op blazen en releasen</t>
   </si>
 </sst>
 </file>
@@ -739,16 +739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,15 +765,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -785,14 +785,14 @@
       </c>
       <c r="F3">
         <f>COUNTIF(C3:C103,"voltooid")</f>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <f>F1-F3</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1092,29 +1092,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1125,18 +1125,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1158,18 +1158,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1194,18 +1194,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1238,49 +1238,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1291,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1316,24 +1316,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1355,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1369,21 +1369,21 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1394,56 +1394,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1454,64 +1466,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1519,15 +1546,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1546,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1557,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1568,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1576,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1587,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1595,23 +1622,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1622,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1633,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1644,7 +1671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1655,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1666,21 +1693,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1691,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1705,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1719,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1730,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1741,40 +1768,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1785,29 +1812,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1818,40 +1845,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1861,11 +1888,8 @@
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0516E6-E932-4B86-B2C5-29C7D448FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838D1A9-AAF9-4AAD-9B0E-F99089F38B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -739,16 +739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1290,11 +1290,8 @@
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1488,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1524,7 +1521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1638,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1649,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1693,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1768,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838D1A9-AAF9-4AAD-9B0E-F99089F38B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123205D7-7B2E-4842-9CA8-9E86A52D8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,6 +1599,9 @@
       <c r="B74" t="s">
         <v>19</v>
       </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123205D7-7B2E-4842-9CA8-9E86A52D8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235273E9-4597-47C4-8DB3-2ACD8B005836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>demo</t>
   </si>
@@ -739,16 +739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1434,11 +1434,8 @@
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1463,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1507,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1581,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1638,7 +1635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1649,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1693,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1768,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>

--- a/demo overzicht.xlsx
+++ b/demo overzicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpols\Documents\GitHub\Showing-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235273E9-4597-47C4-8DB3-2ACD8B005836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7D01F-14B3-48E3-83AE-5A59E809F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>demo</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Boyle’s law</t>
   </si>
   <si>
-    <t>foto en video</t>
-  </si>
-  <si>
     <t>Black and white</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
   </si>
   <si>
     <t>Miscommunicating vessels</t>
-  </si>
-  <si>
-    <t>beter filmpje &amp; foto</t>
   </si>
   <si>
     <t>te gaan</t>
@@ -739,16 +733,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.7109375" customWidth="1"/>
+    <col min="2" max="2" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,15 +759,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -792,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -803,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -814,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -836,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -847,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -858,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -869,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -880,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -891,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -902,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -924,7 +918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -935,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -946,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -957,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -968,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -979,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -989,11 +983,8 @@
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1004,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1026,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1037,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1048,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1059,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1070,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1081,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1092,29 +1083,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1125,18 +1116,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1147,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1158,18 +1149,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1179,11 +1170,8 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1194,18 +1182,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1216,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1227,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1238,49 +1226,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1291,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1302,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1313,24 +1301,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1341,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1352,10 +1340,10 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1366,21 +1354,21 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1391,51 +1379,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1446,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1471,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1482,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1493,18 +1481,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1515,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1529,10 +1517,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1540,15 +1528,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1556,7 +1544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1578,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1589,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1597,10 +1585,10 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1619,23 +1607,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1668,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1679,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1690,21 +1678,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1715,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1729,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1743,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1754,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1765,40 +1753,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1809,29 +1797,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1842,56 +1830,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
